--- a/data/unchecked/manual_collect/france/FranceCaseStatistics20200215.xlsx
+++ b/data/unchecked/manual_collect/france/FranceCaseStatistics20200215.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9215" uniqueCount="3306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9185" uniqueCount="3294">
   <si>
     <t>统计级别</t>
   </si>
@@ -10144,33 +10144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>从1开始累计</t>
-  </si>
-  <si>
-    <t>格式为“YYYY/MM/DD HH:MM”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写，不确定的地区写“地区待确认”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写</t>
-  </si>
-  <si>
-    <t>不能填0</t>
-  </si>
-  <si>
-    <t>所有内容，包括标题</t>
-  </si>
-  <si>
-    <t>值为“手动”、“自动”</t>
-  </si>
-  <si>
-    <t>值为“未核查”、“已核查”</t>
-  </si>
-  <si>
-    <t>值为“核查通过”、“核查未通过”</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -10273,31 +10246,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>不能填0，正数核增，负数核减</t>
-    <rPh sb="0" eb="1">
-      <t>bu'neng'tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zheng'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>he'zeng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'shu'he'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>国家级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照规范文件填写，包含直辖市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为“国家级”、“省级”、“城市级”、“区县级”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10308,12 +10257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中国新闻网</t>
-  </si>
-  <si>
-    <t>https://baijiahao.baidu.com/s?id=1658607959332646844&amp;wfr=spider&amp;for=pc</t>
-  </si>
-  <si>
     <t>手动</t>
   </si>
   <si>
@@ -10331,6 +10274,12 @@
   <si>
     <t>核查通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baijiahao.baidu.com/s?id=1658651261610268769&amp;wfr=spider&amp;for=pc</t>
+  </si>
+  <si>
+    <t>中国经济网</t>
   </si>
 </sst>
 </file>
@@ -10782,7 +10731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10790,10 +10739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10837,321 +10786,221 @@
         <v>3251</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>3297</v>
+        <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>3252</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3252</v>
-      </c>
-      <c r="E1" s="16"/>
+        <v>3253</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3254</v>
+      </c>
       <c r="F1" s="16" t="s">
-        <v>3296</v>
+        <v>11</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>3253</v>
+        <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>3254</v>
+        <v>2</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>3255</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>3255</v>
+        <v>3260</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>3255</v>
+        <v>3261</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>3255</v>
+        <v>3262</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>3294</v>
+        <v>3263</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>3294</v>
-      </c>
-      <c r="S1" s="16"/>
+        <v>3264</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>3265</v>
+      </c>
       <c r="T1" s="16" t="s">
-        <v>3252</v>
+        <v>3266</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>3256</v>
-      </c>
-      <c r="V1" s="16"/>
+        <v>3267</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="W1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+        <v>3268</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>3269</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>3270</v>
+      </c>
       <c r="Z1" s="16" t="s">
-        <v>3252</v>
+        <v>3271</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AB1" s="16"/>
+        <v>3272</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>3273</v>
+      </c>
       <c r="AC1" s="16" t="s">
-        <v>3258</v>
+        <v>3274</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>3252</v>
+        <v>3275</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AF1" s="16"/>
+        <v>3276</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>3277</v>
+      </c>
       <c r="AG1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AH1" s="16"/>
+        <v>3278</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>3279</v>
+      </c>
       <c r="AI1" s="16" t="s">
-        <v>3252</v>
+        <v>4</v>
       </c>
       <c r="AJ1" s="16" t="s">
-        <v>3252</v>
+        <v>3280</v>
       </c>
       <c r="AK1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AL1" s="16"/>
+        <v>3281</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>3282</v>
+      </c>
       <c r="AM1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AN1" s="16"/>
-    </row>
-    <row r="2" spans="1:40" s="18" customFormat="1" ht="15">
-      <c r="A2" s="16" t="s">
-        <v>3260</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>3262</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3263</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>3265</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>3266</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>3267</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>3268</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>3269</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>3270</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>3271</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>3272</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>3273</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>3274</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>3275</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>3276</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>3277</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>3278</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>3279</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>3280</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>3281</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>3282</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>3283</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>3284</v>
-      </c>
-      <c r="AE2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>3285</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="C2" s="14">
+        <v>43876</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43877</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>3286</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12">
+        <v>4</v>
+      </c>
+      <c r="P2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="W2" s="20">
+        <v>43876.874305555553</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>3293</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>3292</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>43877.897222222222</v>
+      </c>
+      <c r="AA2" s="13" t="s">
         <v>3287</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AB2" s="13" t="s">
         <v>3288</v>
       </c>
-      <c r="AI2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AC2" s="13" t="s">
         <v>3289</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AD2" s="15">
+        <v>43877.902777777781</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>3287</v>
+      </c>
+      <c r="AF2" s="13" t="s">
         <v>3290</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AG2" s="13" t="s">
         <v>3291</v>
       </c>
-      <c r="AM2" s="16" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C3" s="14">
-        <v>43876</v>
-      </c>
-      <c r="D3" s="14">
-        <v>43877</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3298</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12">
-        <v>11</v>
-      </c>
-      <c r="O3" s="12">
-        <v>1</v>
-      </c>
-      <c r="P3" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="W3" s="20">
-        <v>43876.874305555553</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>3299</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>3300</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>43876.897222222222</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>3301</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>3302</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>3303</v>
-      </c>
-      <c r="AD3" s="15">
-        <v>43876.902777777781</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>3301</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>3304</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>3305</v>
-      </c>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AE3:AE1048576 AA3:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
-      <formula1>INDIRECT($F3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>INDIRECT($G3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11163,7 +11012,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
